--- a/bkp/Comic_List1.xlsx
+++ b/bkp/Comic_List1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\ebayPricer\ebayPricer\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\ebayPricer\bkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5E5E2-2716-4EB5-AE88-FE7843B59731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15A8DE-EC8F-4606-AF9D-A35526E4B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19245" yWindow="465" windowWidth="36210" windowHeight="20415" xr2:uid="{886683B5-5223-40F8-83AB-59099744B43D}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="19200" windowHeight="11260" xr2:uid="{886683B5-5223-40F8-83AB-59099744B43D}"/>
   </bookViews>
   <sheets>
     <sheet name="Comics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="588">
   <si>
     <t>Publisher</t>
   </si>
@@ -1798,6 +1798,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Amazing Spider-Man</t>
   </si>
 </sst>
 </file>
@@ -1936,14 +1939,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECEFE79E-1BE9-40FC-A585-56BE754A7F36}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I1048576" xr:uid="{ECEFE79E-1BE9-40FC-A585-56BE754A7F36}"/>
   <tableColumns count="9">
-    <tableColumn id="8" xr3:uid="{35462D30-0FC9-4C1B-9077-D3F72A067C3E}" name="ID" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{55399DF0-6B42-48C5-977B-0BDF7A61BB24}" name="Publisher" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{09229691-F9C8-4610-9929-07A708CAB7AF}" name="Series Title" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{53FBBA30-C298-4ED7-89B1-6496C8BFC60F}" name="Issue Number" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0130079F-C995-43C4-A974-F407BD509EAD}" name="graded" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F9FA9B34-921D-41BD-B1D2-6A2B0F3814EC}" name="Professional Grader" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F69A5B83-32C3-4D0D-A89C-A3DA942F115C}" name="Grade" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5868E4C4-3732-4E96-AA58-77E9A102662E}" name="Variant" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{35462D30-0FC9-4C1B-9077-D3F72A067C3E}" name="ID" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{55399DF0-6B42-48C5-977B-0BDF7A61BB24}" name="Publisher" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{09229691-F9C8-4610-9929-07A708CAB7AF}" name="Series Title" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{53FBBA30-C298-4ED7-89B1-6496C8BFC60F}" name="Issue Number" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{0130079F-C995-43C4-A974-F407BD509EAD}" name="graded" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{F9FA9B34-921D-41BD-B1D2-6A2B0F3814EC}" name="Professional Grader" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F69A5B83-32C3-4D0D-A89C-A3DA942F115C}" name="Grade" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5868E4C4-3732-4E96-AA58-77E9A102662E}" name="Variant" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{F8A4B9D7-583F-478A-A9A4-141F95ECD0FB}" name="Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2247,23 +2250,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C981230-F1C9-4C11-80FD-B7CD5B5297EE}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="36.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1">
@@ -2293,6 +2296,29 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2" s="3">
+        <v>300</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2348,14 +2374,14 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
